--- a/multimodels/moments_multimodels.xlsx
+++ b/multimodels/moments_multimodels.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="142">
   <si>
     <t>SC3ie</t>
   </si>
@@ -158,12 +158,6 @@
     <t>SC2lsm</t>
   </si>
   <si>
-    <t>SC1ism</t>
-  </si>
-  <si>
-    <t>SC1sm</t>
-  </si>
-  <si>
     <t>SC1nm</t>
   </si>
   <si>
@@ -197,15 +191,9 @@
     <t>Imsc</t>
   </si>
   <si>
-    <t>Imsci</t>
-  </si>
-  <si>
     <t>Imscsm</t>
   </si>
   <si>
-    <t>Imscism</t>
-  </si>
-  <si>
     <t>Im</t>
   </si>
   <si>
@@ -366,6 +354,105 @@
   </si>
   <si>
     <t>SC2ielsm2</t>
+  </si>
+  <si>
+    <t>SC1ielsm1</t>
+  </si>
+  <si>
+    <t>SC1ielsm2</t>
+  </si>
+  <si>
+    <t>1 early and late, independent</t>
+  </si>
+  <si>
+    <t>SC2i</t>
+  </si>
+  <si>
+    <t>1,2 same</t>
+  </si>
+  <si>
+    <t>1,2 different</t>
+  </si>
+  <si>
+    <t>Imisc</t>
+  </si>
+  <si>
+    <t>Imiscsm</t>
+  </si>
+  <si>
+    <t>Imisc2</t>
+  </si>
+  <si>
+    <t>2, free size of 1st epoch</t>
+  </si>
+  <si>
+    <t>Imisc2sm</t>
+  </si>
+  <si>
+    <t>Imsc2</t>
+  </si>
+  <si>
+    <t>SC3ml2</t>
+  </si>
+  <si>
+    <t>SC3em2</t>
+  </si>
+  <si>
+    <t>SC3el2</t>
+  </si>
+  <si>
+    <t>1,3 independent</t>
+  </si>
+  <si>
+    <t>2,3 independent</t>
+  </si>
+  <si>
+    <t>1,2 independent</t>
+  </si>
+  <si>
+    <t>SC2</t>
+  </si>
+  <si>
+    <t>SC2sm1</t>
+  </si>
+  <si>
+    <t>SC2sm2</t>
+  </si>
+  <si>
+    <t>SC11</t>
+  </si>
+  <si>
+    <t>SC11sm</t>
+  </si>
+  <si>
+    <t>SC1sm1</t>
+  </si>
+  <si>
+    <t>yes early, no late</t>
+  </si>
+  <si>
+    <t>no early, yes late</t>
+  </si>
+  <si>
+    <t>SC1sm2</t>
+  </si>
+  <si>
+    <t>s2m</t>
+  </si>
+  <si>
+    <t>s1msm</t>
+  </si>
+  <si>
+    <t>s2mi</t>
+  </si>
+  <si>
+    <t>s1mismB</t>
+  </si>
+  <si>
+    <t>1 for  background genome, 0 for  islands</t>
+  </si>
+  <si>
+    <t>ImscsmB</t>
   </si>
 </sst>
 </file>
@@ -680,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H74" sqref="H74"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -708,7 +795,7 @@
         <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -782,13 +869,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -805,13 +892,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -828,13 +915,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -851,13 +938,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -874,13 +961,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -897,13 +984,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -920,13 +1007,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -935,7 +1022,7 @@
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -943,13 +1030,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -958,7 +1045,7 @@
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -966,7 +1053,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -978,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1058,7 +1145,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1073,7 +1160,7 @@
         <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1081,7 +1168,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1096,7 +1183,7 @@
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1104,7 +1191,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1119,7 +1206,7 @@
         <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1127,7 +1214,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1142,7 +1229,7 @@
         <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1150,7 +1237,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1165,7 +1252,7 @@
         <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1173,7 +1260,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1188,7 +1275,7 @@
         <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1265,7 +1352,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1277,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1374,6 +1461,9 @@
       <c r="F30">
         <v>0</v>
       </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -1394,6 +1484,9 @@
       <c r="F31">
         <v>0</v>
       </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -1414,10 +1507,13 @@
       <c r="F32">
         <v>0</v>
       </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1429,10 +1525,13 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F33">
         <v>0</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1454,6 +1553,9 @@
       <c r="F34">
         <v>0</v>
       </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -1474,6 +1576,9 @@
       <c r="F35">
         <v>0</v>
       </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
@@ -1494,10 +1599,13 @@
       <c r="F36">
         <v>0</v>
       </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -1508,16 +1616,19 @@
       <c r="D37">
         <v>0</v>
       </c>
-      <c r="E37">
-        <v>1</v>
+      <c r="E37" t="s">
+        <v>125</v>
       </c>
       <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -1528,16 +1639,19 @@
       <c r="D38">
         <v>0</v>
       </c>
-      <c r="E38">
-        <v>2</v>
+      <c r="E38" t="s">
+        <v>126</v>
       </c>
       <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -1548,16 +1662,19 @@
       <c r="D39">
         <v>0</v>
       </c>
-      <c r="E39">
-        <v>3</v>
+      <c r="E39" t="s">
+        <v>124</v>
       </c>
       <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -1568,16 +1685,19 @@
       <c r="D40">
         <v>0</v>
       </c>
-      <c r="E40" t="s">
-        <v>74</v>
+      <c r="E40">
+        <v>1</v>
       </c>
       <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -1588,16 +1708,19 @@
       <c r="D41">
         <v>0</v>
       </c>
-      <c r="E41" t="s">
-        <v>11</v>
+      <c r="E41">
+        <v>2</v>
       </c>
       <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -1608,16 +1731,19 @@
       <c r="D42">
         <v>0</v>
       </c>
-      <c r="E42" t="s">
-        <v>12</v>
+      <c r="E42">
+        <v>3</v>
       </c>
       <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -1629,30 +1755,33 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -1660,22 +1789,22 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>12</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -1683,22 +1812,22 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -1706,7 +1835,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -1717,11 +1846,11 @@
       <c r="D47">
         <v>1</v>
       </c>
-      <c r="E47">
-        <v>1</v>
+      <c r="E47" t="s">
+        <v>114</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -1729,7 +1858,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -1741,10 +1870,10 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -1752,7 +1881,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -1763,11 +1892,11 @@
       <c r="D49">
         <v>1</v>
       </c>
-      <c r="E49" t="s">
-        <v>12</v>
+      <c r="E49">
+        <v>2</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -1775,7 +1904,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -1787,10 +1916,10 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" t="s">
-        <v>94</v>
+        <v>113</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -1798,7 +1927,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -1809,11 +1938,11 @@
       <c r="D51">
         <v>1</v>
       </c>
-      <c r="E51" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" t="s">
-        <v>95</v>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -1821,7 +1950,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -1830,18 +1959,21 @@
         <v>2</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -1850,18 +1982,21 @@
         <v>2</v>
       </c>
       <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>12</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -1870,18 +2005,21 @@
         <v>2</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" t="s">
         <v>12</v>
       </c>
-      <c r="F54">
-        <v>0</v>
+      <c r="F54" t="s">
+        <v>90</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -1890,18 +2028,21 @@
         <v>2</v>
       </c>
       <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s">
+        <v>91</v>
+      </c>
+      <c r="G55">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -1912,16 +2053,19 @@
       <c r="D56">
         <v>0</v>
       </c>
-      <c r="E56">
-        <v>2</v>
+      <c r="E56" t="s">
+        <v>126</v>
       </c>
       <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -1933,195 +2077,225 @@
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57">
+        <v>126</v>
+      </c>
+      <c r="F57" t="s">
+        <v>90</v>
+      </c>
+      <c r="G57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>66</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
+        <v>126</v>
+      </c>
+      <c r="F58" t="s">
+        <v>91</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59" t="s">
-        <v>67</v>
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
       </c>
       <c r="F59">
         <v>0</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60" t="s">
-        <v>66</v>
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
       </c>
       <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
-      <c r="E62" t="s">
-        <v>66</v>
+      <c r="E62">
+        <v>1</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
-      <c r="E63" t="s">
-        <v>67</v>
+      <c r="E63">
+        <v>2</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
-      <c r="C65">
-        <v>1</v>
+      <c r="C65" t="s">
+        <v>102</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
-      <c r="E65" t="s">
-        <v>67</v>
+      <c r="E65">
+        <v>2</v>
       </c>
       <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
-      <c r="C66">
-        <v>1</v>
+      <c r="C66" t="s">
+        <v>102</v>
       </c>
       <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>12</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -2130,18 +2304,21 @@
         <v>1</v>
       </c>
       <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>62</v>
       </c>
       <c r="F67">
         <v>0</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -2152,16 +2329,19 @@
       <c r="D68">
         <v>1</v>
       </c>
-      <c r="E68">
-        <v>1</v>
+      <c r="E68" t="s">
+        <v>63</v>
       </c>
       <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -2170,33 +2350,36 @@
         <v>1</v>
       </c>
       <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>62</v>
       </c>
       <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
-      <c r="C70" t="s">
-        <v>106</v>
-      </c>
-      <c r="D70" t="s">
-        <v>48</v>
-      </c>
-      <c r="E70" t="s">
-        <v>48</v>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -2204,22 +2387,22 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
-      <c r="C71" t="s">
-        <v>108</v>
-      </c>
-      <c r="D71" t="s">
-        <v>48</v>
-      </c>
-      <c r="E71" t="s">
-        <v>48</v>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -2227,22 +2410,22 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
-      <c r="C72" t="s">
-        <v>110</v>
-      </c>
-      <c r="D72" t="s">
-        <v>48</v>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>48</v>
-      </c>
-      <c r="F72" t="s">
-        <v>48</v>
+        <v>63</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -2250,7 +2433,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -2258,14 +2441,14 @@
       <c r="C73">
         <v>1</v>
       </c>
-      <c r="D73" t="s">
-        <v>48</v>
+      <c r="D73">
+        <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>48</v>
-      </c>
-      <c r="F73" t="s">
-        <v>48</v>
+        <v>62</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -2273,22 +2456,22 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
       <c r="C74">
-        <v>2</v>
-      </c>
-      <c r="D74" t="s">
-        <v>48</v>
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>48</v>
-      </c>
-      <c r="F74" t="s">
-        <v>48</v>
+        <v>63</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -2296,22 +2479,22 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
       <c r="C75">
-        <v>3</v>
-      </c>
-      <c r="D75" t="s">
-        <v>48</v>
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>48</v>
-      </c>
-      <c r="F75" t="s">
-        <v>48</v>
+        <v>62</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -2319,22 +2502,22 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
-      <c r="D76" t="s">
-        <v>48</v>
+      <c r="D76">
+        <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>48</v>
-      </c>
-      <c r="F76" t="s">
-        <v>48</v>
+        <v>63</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -2342,22 +2525,22 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77">
-        <v>2</v>
-      </c>
-      <c r="D77" t="s">
-        <v>48</v>
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>48</v>
-      </c>
-      <c r="F77" t="s">
-        <v>48</v>
+        <v>111</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -2365,22 +2548,22 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78">
-        <v>3</v>
-      </c>
-      <c r="D78" t="s">
-        <v>48</v>
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>48</v>
-      </c>
-      <c r="F78" t="s">
-        <v>48</v>
+        <v>111</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -2388,7 +2571,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -2399,231 +2582,704 @@
       <c r="D79">
         <v>0</v>
       </c>
-      <c r="E79">
-        <v>1</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
+      <c r="E79" t="s">
+        <v>111</v>
+      </c>
+      <c r="F79" t="s">
+        <v>133</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>135</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80" t="s">
+        <v>111</v>
+      </c>
+      <c r="F80" t="s">
+        <v>134</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>101</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>102</v>
+      </c>
+      <c r="D81" t="s">
+        <v>46</v>
+      </c>
+      <c r="E81" t="s">
+        <v>46</v>
+      </c>
+      <c r="F81" t="s">
+        <v>46</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>103</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>104</v>
+      </c>
+      <c r="D82" t="s">
+        <v>46</v>
+      </c>
+      <c r="E82" t="s">
+        <v>46</v>
+      </c>
+      <c r="F82" t="s">
+        <v>46</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>105</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>106</v>
+      </c>
+      <c r="D83" t="s">
+        <v>46</v>
+      </c>
+      <c r="E83" t="s">
+        <v>46</v>
+      </c>
+      <c r="F83" t="s">
+        <v>46</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>43</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>46</v>
+      </c>
+      <c r="E84" t="s">
+        <v>46</v>
+      </c>
+      <c r="F84" t="s">
+        <v>46</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>44</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85" t="s">
+        <v>46</v>
+      </c>
+      <c r="E85" t="s">
+        <v>46</v>
+      </c>
+      <c r="F85" t="s">
+        <v>46</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>45</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+      <c r="D86" t="s">
+        <v>46</v>
+      </c>
+      <c r="E86" t="s">
+        <v>46</v>
+      </c>
+      <c r="F86" t="s">
+        <v>46</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>47</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>46</v>
+      </c>
+      <c r="E87" t="s">
+        <v>46</v>
+      </c>
+      <c r="F87" t="s">
+        <v>46</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>48</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+      <c r="D88" t="s">
+        <v>46</v>
+      </c>
+      <c r="E88" t="s">
+        <v>46</v>
+      </c>
+      <c r="F88" t="s">
+        <v>46</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>49</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+      <c r="D89" t="s">
+        <v>46</v>
+      </c>
+      <c r="E89" t="s">
+        <v>46</v>
+      </c>
+      <c r="F89" t="s">
+        <v>46</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>136</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>137</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>138</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>139</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93" t="s">
+        <v>140</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>55</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>50</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>51</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>52</v>
       </c>
-      <c r="B80">
-        <v>1</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>53</v>
       </c>
-      <c r="B81">
-        <v>1</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="F81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>120</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>118</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>115</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>117</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>118</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>54</v>
       </c>
-      <c r="B82">
-        <v>1</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
-      <c r="F82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>55</v>
-      </c>
-      <c r="B83">
-        <v>1</v>
-      </c>
-      <c r="C83">
-        <v>2</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83">
-        <v>2</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>141</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103" t="s">
+        <v>140</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>116</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>119</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>118</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
         <v>56</v>
       </c>
-      <c r="B84">
-        <v>1</v>
-      </c>
-      <c r="C84">
-        <v>2</v>
-      </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-      <c r="E84">
-        <v>2</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106" t="s">
+        <v>46</v>
+      </c>
+      <c r="F106" t="s">
+        <v>46</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>57</v>
       </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-      <c r="C85">
-        <v>2</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>2</v>
-      </c>
-      <c r="F85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>2</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107" t="s">
+        <v>46</v>
+      </c>
+      <c r="F107" t="s">
+        <v>46</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
         <v>58</v>
       </c>
-      <c r="B86">
-        <v>1</v>
-      </c>
-      <c r="C86">
-        <v>2</v>
-      </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-      <c r="E86">
-        <v>2</v>
-      </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>60</v>
-      </c>
-      <c r="B87">
-        <v>1</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87" t="s">
-        <v>48</v>
-      </c>
-      <c r="F87" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>61</v>
-      </c>
-      <c r="B88">
-        <v>1</v>
-      </c>
-      <c r="C88">
-        <v>2</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88" t="s">
-        <v>48</v>
-      </c>
-      <c r="F88" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>62</v>
-      </c>
-      <c r="B89">
-        <v>0</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89" t="s">
-        <v>48</v>
-      </c>
-      <c r="E89" t="s">
-        <v>48</v>
-      </c>
-      <c r="F89" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>63</v>
-      </c>
-      <c r="B90">
-        <v>0</v>
-      </c>
-      <c r="C90">
-        <v>2</v>
-      </c>
-      <c r="D90" t="s">
-        <v>48</v>
-      </c>
-      <c r="E90" t="s">
-        <v>48</v>
-      </c>
-      <c r="F90" t="s">
-        <v>48</v>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108" t="s">
+        <v>46</v>
+      </c>
+      <c r="E108" t="s">
+        <v>46</v>
+      </c>
+      <c r="F108" t="s">
+        <v>46</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>59</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
+      <c r="D109" t="s">
+        <v>46</v>
+      </c>
+      <c r="E109" t="s">
+        <v>46</v>
+      </c>
+      <c r="F109" t="s">
+        <v>46</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/multimodels/moments_multimodels.xlsx
+++ b/multimodels/moments_multimodels.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="3620" windowWidth="19000" windowHeight="11720" tabRatio="500"/>
+    <workbookView xWindow="2940" yWindow="3380" windowWidth="19000" windowHeight="11720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -769,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="F104" sqref="F104"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2011,7 +2011,7 @@
         <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -2034,7 +2034,7 @@
         <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G55">
         <v>1</v>
